--- a/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/132.テーブル定義07（product_masters）商品情報マスタ.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/13x.テーブル設計/132.テーブル定義07（product_masters）商品情報マスタ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\13x.テーブル設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\13x.テーブル設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A6815-4837-4AFF-9B32-516B47A5EBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A2CCE-0A20-4B39-9992-DAC5AD28886C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1275" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="24375" windowHeight="14925" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="63" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>初期値</t>
   </si>
@@ -505,53 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品の在庫を管理する項目。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※商品の性質を考えると在庫管理は必要ないが、習作のため敢えて持たせることとする。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイシツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウサク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品サムネイル画像</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -562,32 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品在庫数</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>販売中止区分</t>
-    <rPh sb="0" eb="2">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_at</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -659,44 +586,6 @@
   <si>
     <t>基本的に最新情報のみを保存する。
 変更前情報は、商品情報変更履歴（product_edit_histories）側に記録として残す。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本国内に居住している人のみを対象とする。
-よって、住所や連絡先電話番号は日本用のみとする。</t>
-    <rPh sb="0" eb="2">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョジュウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1025,10 +914,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>product_stock_quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>s</t>
     </r>
@@ -1121,21 +1006,121 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>通常はKEY(商品コード・販売期間（FROM）・販売期間（TO）)で１レコードのみ存在する。
+仮変更・仮削除中の場合のみ、２レコード存在する。
+例）ステータス＝正式と仮変更の２レコード</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売中止区分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">何らかの理由により販売を一時的に中止する必要がある場合に使用する。
-・販売可
-</t>
+      <t>販売</t>
     </r>
     <r>
       <rPr>
-        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・仮販売中止</t>
+      <t>状況</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>区分</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名見直し（販売中止区分⇒販売状況区分）
+値より廃止した2項目削除（仮販売中止、仮販売再開）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>何らかの理由により販売を一時的に中止する必要がある場合に使用する。
+・販売可</t>
     </r>
     <r>
       <rPr>
@@ -1145,19 +1130,7 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-・販売中止
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・仮販売再開</t>
+・販売中止</t>
     </r>
     <rPh sb="0" eb="1">
       <t>ナン</t>
@@ -1189,68 +1162,31 @@
     <rPh sb="37" eb="38">
       <t>カ</t>
     </rPh>
-    <rPh sb="40" eb="41">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="40" eb="42">
       <t>ハンバイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="42" eb="44">
       <t>チュウシ</t>
     </rPh>
-    <rPh sb="47" eb="49">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>チュウシ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常はKEY(商品コード・販売期間（FROM）・販売期間（TO）)で１レコードのみ存在する。
-仮変更・仮削除中の場合のみ、２レコード存在する。
-例）ステータス＝正式と仮変更の２レコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫リスト(product_stock_lists)へ移植したため削除</t>
     <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヘンコウ</t>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イショク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1262,7 +1198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1356,7 +1292,13 @@
       <charset val="128"/>
     </font>
     <font>
-      <strike/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1535,24 +1477,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1661,6 +1588,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1713,7 +1670,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s3733"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s3745"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1815,318 +1772,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1990724</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C3AA1E-C0CD-4C13-8B5C-D6C5251B6B14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2285999" y="5305425"/>
-          <a:ext cx="6238876" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -57472"/>
-            <a:gd name="adj2" fmla="val -47256"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【2020/1/16</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>課題</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>在庫管理は商品コード単位の別のマスタ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>商品在庫リスト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(product_stock_lists)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に独立させる。　修正箇所が多いため、暫定的に項目を残したまま開発作業中。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C61DF55-F448-4A52-B5CA-7FF724F30A1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171824" y="8677275"/>
-          <a:ext cx="6238876" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 56726"/>
-            <a:gd name="adj2" fmla="val -381256"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【2020/1/22</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>課題</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>上記の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>と機能が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>重なる</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ため、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>仮～は不要だった。後日廃止予定。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2160,7 +1805,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s4727"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s4739"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2578,480 +2223,492 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C6D5E2-FF82-4A63-9580-57813221352E}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="2.625" style="4"/>
+    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4:A51" si="0">ROW()-4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="42">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="43">
         <v>43755</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="44">
+        <f t="shared" ref="A5:A51" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="45">
+        <v>43891</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="45">
+        <v>43891</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="44">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="44">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="44">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="44">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="44">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="44">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="44">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="44">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="44">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="44">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="44">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="44">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="44">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="44">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="44">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="44">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="44">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="44">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="44">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="44">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="44">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="44">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="6">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="44">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3065,889 +2722,858 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F01E2FA-FE87-42A2-BDCC-3C1D98EC4DA6}">
-  <dimension ref="A7:K49"/>
+  <dimension ref="A7:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="35.875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="3.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="64.5" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="3.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="64.5" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:11">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20">
-        <f t="shared" ref="A9:A49" si="0">ROW()-7</f>
+      <c r="A9" s="13">
+        <f t="shared" ref="A9:A48" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
+      <c r="B9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="67.5">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="34" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="23" t="str">
+      <c r="K10" s="16" t="str">
         <f>"$table-&gt;"&amp;D10&amp;"('"&amp;B10&amp;"');"</f>
         <v>$table-&gt;string('product_code');</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="40.5">
-      <c r="A11" s="20">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="34" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="23" t="str">
-        <f t="shared" ref="K11:K20" si="1">"$table-&gt;"&amp;D11&amp;"('"&amp;B11&amp;"');"</f>
+      <c r="K11" s="16" t="str">
+        <f t="shared" ref="K11:K19" si="1">"$table-&gt;"&amp;D11&amp;"('"&amp;B11&amp;"');"</f>
         <v>$table-&gt;datetime('sales_period_from');</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27">
-      <c r="A12" s="20">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="23" t="str">
+      <c r="K12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;datetime('sales_period_to');</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="34" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="K13" s="23" t="str">
+      <c r="I13" s="24"/>
+      <c r="K13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;string('product_name');</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="34" t="s">
+      <c r="D14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="K14" s="23" t="str">
+      <c r="I14" s="24"/>
+      <c r="K14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;text('product_description');</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="34" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="K15" s="23" t="str">
+      <c r="I15" s="24"/>
+      <c r="K15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;integer('product_price');</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="34" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="23" t="str">
+      <c r="I16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;string('product_image');</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="B17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="34" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="23" t="str">
+      <c r="I17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;string('product_thumbnail');</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="40.5">
-      <c r="A18" s="20">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="34" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="23" t="str">
+      <c r="K18" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;string('product_search_keyword');</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="40.5">
-      <c r="A19" s="20">
+      <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="34" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="23" t="str">
+      <c r="K19" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$table-&gt;string('product_tag');</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A20" s="20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="34" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="54">
+      <c r="A22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>$table-&gt;integer('product_stock_quantity');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="20">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:11" ht="54">
-      <c r="A23" s="20">
+      <c r="I22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="16" t="str">
+        <f t="shared" ref="K22:K25" si="2">"$table-&gt;"&amp;D22&amp;"('"&amp;B22&amp;"');"</f>
+        <v>$table-&gt;string('status');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="40.5">
+      <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="33" t="s">
+      <c r="B23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="34" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="23" t="str">
-        <f t="shared" ref="K23:K26" si="2">"$table-&gt;"&amp;D23&amp;"('"&amp;B23&amp;"');"</f>
-        <v>$table-&gt;string('status');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="67.5">
-      <c r="A24" s="20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23" t="str">
+      <c r="I23" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16" t="str">
         <f t="shared" si="2"/>
         <v>$table-&gt;string('selling_discontinued_classification');</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27">
-      <c r="A25" s="20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="33" t="s">
+    <row r="24" spans="1:11" ht="27">
+      <c r="A24" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="23" t="str">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="16" t="str">
         <f t="shared" si="2"/>
         <v>$table-&gt;string('temporary_updater_operator_code');</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="27">
-      <c r="A26" s="20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="33" t="s">
+    <row r="25" spans="1:11" ht="27">
+      <c r="A25" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="23" t="str">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="16" t="str">
         <f t="shared" si="2"/>
         <v>$table-&gt;string('temporary_update_approver_operator_code');</v>
       </c>
     </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20">
+      <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20">
+      <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>63</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="20">
+      <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="31"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="20">
+      <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="20">
+      <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="31"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20">
+      <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="31"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20">
+      <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="31"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="20">
+      <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="31"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20">
+      <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="31"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20">
+      <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="31"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20">
+      <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="31"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20">
+      <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="31"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="20">
+      <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="31"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="20">
+      <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="31"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="20">
+      <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="31"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="20">
+      <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="31"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="20">
+      <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="31"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="20">
+      <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="31"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="20">
+      <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="31"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="20">
+      <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="31"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="20">
+      <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="31"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="20">
+      <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="20">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="31"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3962,7 +3588,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3973,569 +3599,567 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27">
+      <c r="A9" s="20">
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27">
+      <c r="A10" s="20">
         <f t="shared" ref="A10:A59" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="27"/>
+      <c r="C10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="27">
+      <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="27"/>
+      <c r="C11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="27">
+      <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="40.5">
-      <c r="A13" s="27">
+      <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="C13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="27">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="27">
-      <c r="A15" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
+      <c r="C16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="27">
+      <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="27"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="27">
+      <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="27">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="27">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="27">
+      <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="27">
+      <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="27">
+      <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="27">
+      <c r="A24" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="27">
+      <c r="A25" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="27">
+      <c r="A26" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="27">
+      <c r="A27" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27">
+      <c r="A28" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="27">
+      <c r="A29" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="27">
+      <c r="A30" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="27">
+      <c r="A31" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="27">
+      <c r="A32" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="27">
+      <c r="A33" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="27">
+      <c r="A34" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="27">
+      <c r="A35" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="27">
+      <c r="A36" s="20">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="27">
+      <c r="A37" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="27">
+      <c r="A38" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="27">
+      <c r="A39" s="20">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="27">
+      <c r="A40" s="20">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="27">
+      <c r="A41" s="20">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="27">
+      <c r="A42" s="20">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="27">
+      <c r="A43" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="27">
+      <c r="A44" s="20">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="27">
+      <c r="A45" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="27">
+      <c r="A46" s="20">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="27">
+      <c r="A47" s="20">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="27">
+      <c r="A48" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="27">
+      <c r="A49" s="20">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="27">
+      <c r="A50" s="20">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="27">
+      <c r="A51" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="27">
+      <c r="A52" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="27">
+      <c r="A53" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="27">
+      <c r="A54" s="20">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="27">
+      <c r="A55" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="27">
+      <c r="A56" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="27">
+      <c r="A57" s="20">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="27">
+      <c r="A58" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="27">
+      <c r="A59" s="20">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4555,39 +4179,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="46.875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="25.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="46.875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4610,12 +4234,12 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
